--- a/data/negative_signals/Indirectly connected (A-X-B) - Tamsulosin - agranulocytosis.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Tamsulosin - agranulocytosis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="466">
   <si>
     <t>pathWeight</t>
   </si>
@@ -173,352 +173,808 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>3170842</t>
+  </si>
+  <si>
+    <t>agranulocytosis</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>55106772</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>5929776</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>8083142</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>57894297</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>2940375</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>74021568</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>116305876</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>124052767</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>54914429</t>
+  </si>
+  <si>
+    <t>124923777</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>760841</t>
+  </si>
+  <si>
+    <t>domestic rabbit</t>
+  </si>
+  <si>
+    <t>67811880</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>55106597</t>
+  </si>
+  <si>
+    <t>51521980</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>60712132</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>60689791</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>56620884</t>
+  </si>
+  <si>
+    <t>51644439</t>
+  </si>
+  <si>
+    <t>65077</t>
+  </si>
+  <si>
+    <t>plasma</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>5894471</t>
+  </si>
+  <si>
+    <t>56417746</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>3814649</t>
+  </si>
+  <si>
+    <t>seizures</t>
+  </si>
+  <si>
+    <t>16538252</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>40126304</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>356203</t>
+  </si>
+  <si>
+    <t>asthenia</t>
+  </si>
+  <si>
+    <t>16537931</t>
+  </si>
+  <si>
+    <t>40032930</t>
+  </si>
+  <si>
+    <t>5646027</t>
+  </si>
+  <si>
+    <t>antibiotics</t>
+  </si>
+  <si>
+    <t>130198086</t>
+  </si>
+  <si>
+    <t>62471956</t>
+  </si>
+  <si>
+    <t>13984671</t>
+  </si>
+  <si>
+    <t>51867697</t>
+  </si>
+  <si>
+    <t>4042009</t>
+  </si>
+  <si>
+    <t>toxic epidermal necrolysis</t>
+  </si>
+  <si>
+    <t>16538301</t>
+  </si>
+  <si>
+    <t>77158011</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>2824923</t>
+  </si>
+  <si>
+    <t>zonal</t>
+  </si>
+  <si>
+    <t>66919597</t>
+  </si>
+  <si>
+    <t>133656574</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>15873042</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>66310104</t>
+  </si>
+  <si>
+    <t>63360303</t>
+  </si>
+  <si>
+    <t>64607682</t>
+  </si>
+  <si>
+    <t>76694645</t>
+  </si>
+  <si>
+    <t>119419964</t>
+  </si>
+  <si>
+    <t>115731820</t>
+  </si>
+  <si>
+    <t>68844156</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>59980625</t>
+  </si>
+  <si>
+    <t>39417905</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>61086538</t>
+  </si>
+  <si>
+    <t>94138945</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>78371095</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>64127977</t>
+  </si>
+  <si>
+    <t>51659939</t>
+  </si>
+  <si>
+    <t>64133042</t>
+  </si>
+  <si>
+    <t>51795079</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>91310828</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>52322115</t>
+  </si>
+  <si>
+    <t>54866972</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>59476151</t>
+  </si>
+  <si>
+    <t>55795388</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>39417910</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>56501158</t>
+  </si>
+  <si>
+    <t>133368</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>55106681</t>
+  </si>
+  <si>
+    <t>52888366</t>
+  </si>
+  <si>
+    <t>85467004</t>
+  </si>
+  <si>
+    <t>5223016</t>
+  </si>
+  <si>
+    <t>syndrome</t>
+  </si>
+  <si>
+    <t>88226077</t>
+  </si>
+  <si>
+    <t>86651226</t>
+  </si>
+  <si>
+    <t>67813261</t>
+  </si>
+  <si>
+    <t>133681402</t>
+  </si>
+  <si>
+    <t>89346547</t>
+  </si>
+  <si>
+    <t>60880346</t>
+  </si>
+  <si>
+    <t>66377788</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>64984494</t>
+  </si>
+  <si>
+    <t>76080872</t>
+  </si>
+  <si>
+    <t>3815757</t>
+  </si>
+  <si>
+    <t>treatment protocols</t>
+  </si>
+  <si>
+    <t>117790126</t>
+  </si>
+  <si>
+    <t>132054246</t>
+  </si>
+  <si>
+    <t>59259151</t>
+  </si>
+  <si>
+    <t>3763552</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>97173369</t>
+  </si>
+  <si>
+    <t>69826116</t>
+  </si>
+  <si>
+    <t>101252482</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>61268171</t>
+  </si>
+  <si>
+    <t>52392191</t>
+  </si>
+  <si>
+    <t>66334415</t>
+  </si>
+  <si>
+    <t>36011</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>99739111</t>
+  </si>
+  <si>
+    <t>55600248</t>
+  </si>
+  <si>
+    <t>3074587</t>
+  </si>
+  <si>
+    <t>hypotension, orthostatic</t>
+  </si>
+  <si>
+    <t>133485230</t>
+  </si>
+  <si>
+    <t>16538026</t>
+  </si>
+  <si>
+    <t>68902229</t>
+  </si>
+  <si>
+    <t>108962683</t>
+  </si>
+  <si>
+    <t>40029279</t>
+  </si>
+  <si>
+    <t>2449184</t>
+  </si>
+  <si>
+    <t>tissue membrane</t>
+  </si>
+  <si>
+    <t>39417909</t>
+  </si>
+  <si>
+    <t>90231749</t>
+  </si>
+  <si>
+    <t>87699144</t>
+  </si>
+  <si>
+    <t>243173</t>
+  </si>
+  <si>
+    <t>adrenergic alpha-antagonists</t>
+  </si>
+  <si>
+    <t>95554339</t>
+  </si>
+  <si>
+    <t>102355127</t>
+  </si>
+  <si>
+    <t>70266925</t>
+  </si>
+  <si>
+    <t>74263115</t>
+  </si>
+  <si>
+    <t>68864163</t>
+  </si>
+  <si>
+    <t>53503756</t>
+  </si>
+  <si>
+    <t>122411381</t>
+  </si>
+  <si>
+    <t>137233731</t>
+  </si>
+  <si>
+    <t>is parent of</t>
+  </si>
+  <si>
+    <t>122441312</t>
+  </si>
+  <si>
+    <t>83517027</t>
+  </si>
+  <si>
+    <t>237928</t>
+  </si>
+  <si>
+    <t>control groups</t>
+  </si>
+  <si>
+    <t>73362975</t>
+  </si>
+  <si>
+    <t>119262239</t>
+  </si>
+  <si>
+    <t>53141098</t>
+  </si>
+  <si>
+    <t>685378</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>70394637</t>
+  </si>
+  <si>
+    <t>66483746</t>
+  </si>
+  <si>
+    <t>5211188</t>
+  </si>
+  <si>
+    <t>antineoplastic agents</t>
+  </si>
+  <si>
+    <t>39417906</t>
+  </si>
+  <si>
+    <t>60304468</t>
+  </si>
+  <si>
     <t>4027653</t>
   </si>
   <si>
     <t>patients</t>
   </si>
   <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>3170842</t>
-  </si>
-  <si>
-    <t>agranulocytosis</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>120668562</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>117776498</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>162339643</t>
+    <t>51581611</t>
+  </si>
+  <si>
+    <t>96147389</t>
   </si>
   <si>
     <t>is not administered to</t>
   </si>
   <si>
-    <t>167777831</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>139803597</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>150058986</t>
+    <t>54309734</t>
+  </si>
+  <si>
+    <t>73362654</t>
+  </si>
+  <si>
+    <t>101575546</t>
+  </si>
+  <si>
+    <t>65381417</t>
+  </si>
+  <si>
+    <t>58548834</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>51368564</t>
+  </si>
+  <si>
+    <t>53440672</t>
+  </si>
+  <si>
+    <t>83683544</t>
   </si>
   <si>
     <t>does not occur in</t>
   </si>
   <si>
-    <t>131781462</t>
-  </si>
-  <si>
-    <t>117580013</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>119703879</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>124950062</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>68930052</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>121496296</t>
-  </si>
-  <si>
-    <t>151840401</t>
-  </si>
-  <si>
-    <t>119180115</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>72334106</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>121496357</t>
-  </si>
-  <si>
-    <t>74504409</t>
-  </si>
-  <si>
-    <t>124274686</t>
-  </si>
-  <si>
-    <t>2940375</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>182528186</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>190266343</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>121368064</t>
-  </si>
-  <si>
-    <t>140408912</t>
-  </si>
-  <si>
-    <t>191113316</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>760841</t>
-  </si>
-  <si>
-    <t>domestic rabbit</t>
-  </si>
-  <si>
-    <t>121496237</t>
-  </si>
-  <si>
-    <t>134218929</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>117720585</t>
-  </si>
-  <si>
-    <t>711620</t>
-  </si>
-  <si>
-    <t>combined modality therapy</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>127089527</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>127111391</t>
-  </si>
-  <si>
-    <t>123001727</t>
-  </si>
-  <si>
-    <t>117865028</t>
-  </si>
-  <si>
-    <t>65077</t>
-  </si>
-  <si>
-    <t>plasma</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>72296993</t>
-  </si>
-  <si>
-    <t>122843393</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>5646027</t>
-  </si>
-  <si>
-    <t>antibiotics</t>
-  </si>
-  <si>
-    <t>196421279</t>
-  </si>
-  <si>
-    <t>128850852</t>
-  </si>
-  <si>
-    <t>118103063</t>
-  </si>
-  <si>
-    <t>80253983</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>3814649</t>
-  </si>
-  <si>
-    <t>seizures</t>
-  </si>
-  <si>
-    <t>82786518</t>
-  </si>
-  <si>
-    <t>106309631</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>3074587</t>
-  </si>
-  <si>
-    <t>hypotension, orthostatic</t>
-  </si>
-  <si>
-    <t>135234180</t>
-  </si>
-  <si>
-    <t>82786292</t>
-  </si>
-  <si>
-    <t>175186848</t>
-  </si>
-  <si>
-    <t>199677819</t>
-  </si>
-  <si>
-    <t>106219042</t>
-  </si>
-  <si>
-    <t>356203</t>
-  </si>
-  <si>
-    <t>asthenia</t>
-  </si>
-  <si>
-    <t>82786197</t>
-  </si>
-  <si>
-    <t>106222557</t>
-  </si>
-  <si>
-    <t>4042009</t>
-  </si>
-  <si>
-    <t>toxic epidermal necrolysis</t>
-  </si>
-  <si>
-    <t>82786567</t>
-  </si>
-  <si>
-    <t>143497649</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>2824923</t>
-  </si>
-  <si>
-    <t>zonal</t>
-  </si>
-  <si>
-    <t>133406862</t>
-  </si>
-  <si>
-    <t>199849367</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>82083739</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>105769761</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
-    <t>122927422</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>118551553</t>
-  </si>
-  <si>
-    <t>121316439</t>
-  </si>
-  <si>
-    <t>157540234</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>125901790</t>
-  </si>
-  <si>
-    <t>122231954</t>
+    <t>2786059</t>
+  </si>
+  <si>
+    <t>cyp2d6 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>57783073</t>
+  </si>
+  <si>
+    <t>57767991</t>
+  </si>
+  <si>
+    <t>122032760</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>28346050</t>
+  </si>
+  <si>
+    <t>gene product variant causes</t>
+  </si>
+  <si>
+    <t>84764</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>79296504</t>
+  </si>
+  <si>
+    <t>58061515</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>69850793</t>
+  </si>
+  <si>
+    <t>837423</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>109872476</t>
+  </si>
+  <si>
+    <t>75476825</t>
+  </si>
+  <si>
+    <t>75975997</t>
+  </si>
+  <si>
+    <t>62612341</t>
+  </si>
+  <si>
+    <t>55781034</t>
+  </si>
+  <si>
+    <t>55041484</t>
+  </si>
+  <si>
+    <t>96407286</t>
+  </si>
+  <si>
+    <t>55270109</t>
+  </si>
+  <si>
+    <t>3784305</t>
+  </si>
+  <si>
+    <t>functional disorder</t>
+  </si>
+  <si>
+    <t>Concepts &amp; Ideas</t>
+  </si>
+  <si>
+    <t>113530754</t>
+  </si>
+  <si>
+    <t>111498228</t>
+  </si>
+  <si>
+    <t>103681551</t>
+  </si>
+  <si>
+    <t>3208634</t>
+  </si>
+  <si>
+    <t>evaluation procedure</t>
+  </si>
+  <si>
+    <t>97580382</t>
+  </si>
+  <si>
+    <t>56516925</t>
+  </si>
+  <si>
+    <t>2986464</t>
+  </si>
+  <si>
+    <t>injection procedure</t>
+  </si>
+  <si>
+    <t>105154251</t>
+  </si>
+  <si>
+    <t>128882769</t>
+  </si>
+  <si>
+    <t>64875871</t>
+  </si>
+  <si>
+    <t>91931169</t>
+  </si>
+  <si>
+    <t>4877776</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>58929289</t>
+  </si>
+  <si>
+    <t>68591436</t>
+  </si>
+  <si>
+    <t>74069156</t>
+  </si>
+  <si>
+    <t>52170687</t>
+  </si>
+  <si>
+    <t>4040981</t>
+  </si>
+  <si>
+    <t>pharmacotherapy</t>
+  </si>
+  <si>
+    <t>122406945</t>
+  </si>
+  <si>
+    <t>122407537</t>
+  </si>
+  <si>
+    <t>52519047</t>
+  </si>
+  <si>
+    <t>91931482</t>
+  </si>
+  <si>
+    <t>51285866</t>
+  </si>
+  <si>
+    <t>58048874</t>
+  </si>
+  <si>
+    <t>3740079</t>
+  </si>
+  <si>
+    <t>journalist</t>
+  </si>
+  <si>
+    <t>60257291</t>
+  </si>
+  <si>
+    <t>56462709</t>
+  </si>
+  <si>
+    <t>3204683</t>
+  </si>
+  <si>
+    <t>management procedure</t>
+  </si>
+  <si>
+    <t>Activities &amp; Behaviors</t>
+  </si>
+  <si>
+    <t>85934982</t>
+  </si>
+  <si>
+    <t>65980510</t>
+  </si>
+  <si>
+    <t>3033627</t>
+  </si>
+  <si>
+    <t>discontinuation (procedure)</t>
+  </si>
+  <si>
+    <t>90856776</t>
+  </si>
+  <si>
+    <t>58180749</t>
   </si>
   <si>
     <t>153796</t>
@@ -527,28 +983,187 @@
     <t>pharmacologic substance</t>
   </si>
   <si>
-    <t>105769758</t>
-  </si>
-  <si>
-    <t>129724720</t>
-  </si>
-  <si>
-    <t>154855420</t>
-  </si>
-  <si>
-    <t>2449184</t>
-  </si>
-  <si>
-    <t>tissue membrane</t>
-  </si>
-  <si>
-    <t>105769760</t>
-  </si>
-  <si>
-    <t>156389153</t>
-  </si>
-  <si>
-    <t>154025010</t>
+    <t>63361697</t>
+  </si>
+  <si>
+    <t>39417907</t>
+  </si>
+  <si>
+    <t>88656027</t>
+  </si>
+  <si>
+    <t>607167</t>
+  </si>
+  <si>
+    <t>hypertensive disease</t>
+  </si>
+  <si>
+    <t>84831351</t>
+  </si>
+  <si>
+    <t>71204873</t>
+  </si>
+  <si>
+    <t>4747186</t>
+  </si>
+  <si>
+    <t>apoptosis</t>
+  </si>
+  <si>
+    <t>89579464</t>
+  </si>
+  <si>
+    <t>106649974</t>
+  </si>
+  <si>
+    <t>4048530</t>
+  </si>
+  <si>
+    <t>hypotension</t>
+  </si>
+  <si>
+    <t>55158424</t>
+  </si>
+  <si>
+    <t>51583329</t>
+  </si>
+  <si>
+    <t>51579697</t>
+  </si>
+  <si>
+    <t>97506618</t>
+  </si>
+  <si>
+    <t>40029151</t>
+  </si>
+  <si>
+    <t>4028126</t>
+  </si>
+  <si>
+    <t>muscle</t>
+  </si>
+  <si>
+    <t>89667244</t>
+  </si>
+  <si>
+    <t>77377392</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>109007790</t>
+  </si>
+  <si>
+    <t>51281485</t>
+  </si>
+  <si>
+    <t>60251454</t>
+  </si>
+  <si>
+    <t>2449038</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>58964362</t>
+  </si>
+  <si>
+    <t>88938768</t>
+  </si>
+  <si>
+    <t>88939545</t>
+  </si>
+  <si>
+    <t>96563424</t>
+  </si>
+  <si>
+    <t>64426176</t>
+  </si>
+  <si>
+    <t>2406105</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>133485656</t>
+  </si>
+  <si>
+    <t>107922067</t>
+  </si>
+  <si>
+    <t>222848</t>
+  </si>
+  <si>
+    <t>analgesics</t>
+  </si>
+  <si>
+    <t>109008026</t>
+  </si>
+  <si>
+    <t>119258014</t>
+  </si>
+  <si>
+    <t>58547365</t>
+  </si>
+  <si>
+    <t>1074935</t>
+  </si>
+  <si>
+    <t>traumatic injury</t>
+  </si>
+  <si>
+    <t>128972848</t>
+  </si>
+  <si>
+    <t>67593159</t>
+  </si>
+  <si>
+    <t>94761</t>
+  </si>
+  <si>
+    <t>administration, oral</t>
+  </si>
+  <si>
+    <t>91916983</t>
+  </si>
+  <si>
+    <t>56503143</t>
+  </si>
+  <si>
+    <t>5792464</t>
+  </si>
+  <si>
+    <t>elderly (population group)</t>
+  </si>
+  <si>
+    <t>89595213</t>
+  </si>
+  <si>
+    <t>92717420</t>
+  </si>
+  <si>
+    <t>5648475</t>
+  </si>
+  <si>
+    <t>vasodilation</t>
+  </si>
+  <si>
+    <t>66308194</t>
+  </si>
+  <si>
+    <t>86908303</t>
+  </si>
+  <si>
+    <t>59988158</t>
+  </si>
+  <si>
+    <t>does not affect</t>
   </si>
   <si>
     <t>5648228</t>
@@ -557,376 +1172,85 @@
     <t>therapeutic procedure</t>
   </si>
   <si>
-    <t>117776319</t>
-  </si>
-  <si>
-    <t>175585738</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>199751822</t>
+    <t>92846802</t>
+  </si>
+  <si>
+    <t>51580579</t>
+  </si>
+  <si>
+    <t>51582318</t>
+  </si>
+  <si>
+    <t>109407837</t>
+  </si>
+  <si>
+    <t>71194832</t>
+  </si>
+  <si>
+    <t>133559350</t>
   </si>
   <si>
     <t>is not higher than</t>
   </si>
   <si>
-    <t>137608369</t>
-  </si>
-  <si>
-    <t>159074197</t>
-  </si>
-  <si>
-    <t>117776856</t>
-  </si>
-  <si>
-    <t>118125398</t>
-  </si>
-  <si>
-    <t>118176436</t>
-  </si>
-  <si>
-    <t>171037091</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>118418351</t>
-  </si>
-  <si>
-    <t>189534553</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>136662443</t>
-  </si>
-  <si>
-    <t>118781199</t>
-  </si>
-  <si>
-    <t>2449038</t>
-  </si>
-  <si>
-    <t>cohort</t>
-  </si>
-  <si>
-    <t>125399650</t>
-  </si>
-  <si>
-    <t>162766990</t>
-  </si>
-  <si>
-    <t>130780763</t>
-  </si>
-  <si>
-    <t>155120609</t>
-  </si>
-  <si>
-    <t>155119894</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>127683956</t>
-  </si>
-  <si>
-    <t>118632708</t>
-  </si>
-  <si>
-    <t>129695389</t>
-  </si>
-  <si>
-    <t>4877776</t>
-  </si>
-  <si>
-    <t>rattus norvegicus</t>
-  </si>
-  <si>
-    <t>134953618</t>
-  </si>
-  <si>
-    <t>70162613</t>
-  </si>
-  <si>
-    <t>125375357</t>
-  </si>
-  <si>
-    <t>140458735</t>
-  </si>
-  <si>
-    <t>118414436</t>
-  </si>
-  <si>
-    <t>4048530</t>
-  </si>
-  <si>
-    <t>hypotension</t>
-  </si>
-  <si>
-    <t>117778006</t>
-  </si>
-  <si>
-    <t>121565253</t>
-  </si>
-  <si>
-    <t>117775942</t>
-  </si>
-  <si>
-    <t>163713510</t>
-  </si>
-  <si>
-    <t>106218881</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>181863712</t>
-  </si>
-  <si>
-    <t>132693043</t>
-  </si>
-  <si>
-    <t>126378712</t>
-  </si>
-  <si>
-    <t>143058128</t>
-  </si>
-  <si>
-    <t>131095192</t>
-  </si>
-  <si>
-    <t>135258069</t>
-  </si>
-  <si>
-    <t>105769756</t>
-  </si>
-  <si>
-    <t>is ingredient of</t>
-  </si>
-  <si>
-    <t>185631235</t>
-  </si>
-  <si>
-    <t>129723247</t>
-  </si>
-  <si>
-    <t>130520472</t>
-  </si>
-  <si>
-    <t>124087865</t>
-  </si>
-  <si>
-    <t>117868141</t>
-  </si>
-  <si>
-    <t>160421810</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>144853775</t>
-  </si>
-  <si>
-    <t>130525693</t>
-  </si>
-  <si>
-    <t>118011469</t>
-  </si>
-  <si>
-    <t>36011</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>165854956</t>
-  </si>
-  <si>
-    <t>122022785</t>
-  </si>
-  <si>
-    <t>243173</t>
-  </si>
-  <si>
-    <t>adrenergic alpha-antagonists</t>
-  </si>
-  <si>
-    <t>203422628</t>
-  </si>
-  <si>
-    <t>is parent of</t>
-  </si>
-  <si>
-    <t>188653206</t>
-  </si>
-  <si>
-    <t>161694079</t>
-  </si>
-  <si>
-    <t>136636889</t>
-  </si>
-  <si>
-    <t>188623236</t>
-  </si>
-  <si>
-    <t>168475227</t>
-  </si>
-  <si>
-    <t>135230955</t>
-  </si>
-  <si>
-    <t>140726954</t>
-  </si>
-  <si>
-    <t>119855006</t>
-  </si>
-  <si>
-    <t>149935803</t>
-  </si>
-  <si>
-    <t>685378</t>
-  </si>
-  <si>
-    <t>persons</t>
-  </si>
-  <si>
-    <t>136823296</t>
-  </si>
-  <si>
-    <t>132830245</t>
-  </si>
-  <si>
-    <t>5211188</t>
-  </si>
-  <si>
-    <t>antineoplastic agents</t>
-  </si>
-  <si>
-    <t>105769757</t>
-  </si>
-  <si>
-    <t>126697724</t>
-  </si>
-  <si>
-    <t>2786059</t>
-  </si>
-  <si>
-    <t>cyp2d6 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>188235778</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>124249323</t>
-  </si>
-  <si>
-    <t>124262208</t>
-  </si>
-  <si>
-    <t>94720216</t>
-  </si>
-  <si>
-    <t>gene product variant causes</t>
-  </si>
-  <si>
-    <t>237928</t>
-  </si>
-  <si>
-    <t>control groups</t>
-  </si>
-  <si>
-    <t>185459500</t>
-  </si>
-  <si>
-    <t>139803871</t>
-  </si>
-  <si>
-    <t>119428032</t>
-  </si>
-  <si>
-    <t>84764</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>145699061</t>
-  </si>
-  <si>
-    <t>133570301</t>
-  </si>
-  <si>
-    <t>124449149</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>5223016</t>
-  </si>
-  <si>
-    <t>syndrome</t>
-  </si>
-  <si>
-    <t>154448611</t>
-  </si>
-  <si>
-    <t>155486272</t>
-  </si>
-  <si>
-    <t>199872406</t>
-  </si>
-  <si>
-    <t>153008686</t>
-  </si>
-  <si>
-    <t>134220704</t>
-  </si>
-  <si>
-    <t>142520119</t>
-  </si>
-  <si>
-    <t>127279475</t>
-  </si>
-  <si>
-    <t>132733621</t>
-  </si>
-  <si>
-    <t>131328561</t>
-  </si>
-  <si>
-    <t>3208634</t>
-  </si>
-  <si>
-    <t>evaluation procedure</t>
-  </si>
-  <si>
-    <t>163698864</t>
-  </si>
-  <si>
-    <t>122941744</t>
+    <t>52518918</t>
+  </si>
+  <si>
+    <t>104841062</t>
+  </si>
+  <si>
+    <t>51930910</t>
+  </si>
+  <si>
+    <t>52177029</t>
+  </si>
+  <si>
+    <t>51917529</t>
+  </si>
+  <si>
+    <t>70248875</t>
+  </si>
+  <si>
+    <t>123319893</t>
+  </si>
+  <si>
+    <t>5647992</t>
+  </si>
+  <si>
+    <t>cavia</t>
+  </si>
+  <si>
+    <t>101660757</t>
+  </si>
+  <si>
+    <t>76296046</t>
+  </si>
+  <si>
+    <t>74068972</t>
+  </si>
+  <si>
+    <t>544027</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>95318370</t>
+  </si>
+  <si>
+    <t>81359498</t>
+  </si>
+  <si>
+    <t>4041077</t>
+  </si>
+  <si>
+    <t>enalapril</t>
+  </si>
+  <si>
+    <t>97715658</t>
+  </si>
+  <si>
+    <t>83898624</t>
   </si>
   <si>
     <t>4040861</t>
@@ -935,160 +1259,70 @@
     <t>complication</t>
   </si>
   <si>
-    <t>172970683</t>
+    <t>58964175</t>
+  </si>
+  <si>
+    <t>68171849</t>
+  </si>
+  <si>
+    <t>106772458</t>
   </si>
   <si>
     <t>does not augment</t>
   </si>
   <si>
-    <t>125399389</t>
-  </si>
-  <si>
-    <t>180932940</t>
-  </si>
-  <si>
-    <t>134623052</t>
-  </si>
-  <si>
-    <t>178730441</t>
+    <t>114702098</t>
+  </si>
+  <si>
+    <t>112503538</t>
   </si>
   <si>
     <t>precedes</t>
   </si>
   <si>
-    <t>198201495</t>
-  </si>
-  <si>
-    <t>3740079</t>
-  </si>
-  <si>
-    <t>journalist</t>
-  </si>
-  <si>
-    <t>126635618</t>
-  </si>
-  <si>
-    <t>122888202</t>
-  </si>
-  <si>
-    <t>3204683</t>
-  </si>
-  <si>
-    <t>management procedure</t>
-  </si>
-  <si>
-    <t>Activities &amp; Behaviors</t>
-  </si>
-  <si>
-    <t>152358186</t>
-  </si>
-  <si>
-    <t>132323305</t>
-  </si>
-  <si>
-    <t>3033627</t>
-  </si>
-  <si>
-    <t>discontinuation (procedure)</t>
-  </si>
-  <si>
-    <t>157087263</t>
-  </si>
-  <si>
-    <t>124608306</t>
-  </si>
-  <si>
-    <t>607167</t>
-  </si>
-  <si>
-    <t>hypertensive disease</t>
-  </si>
-  <si>
-    <t>151213331</t>
-  </si>
-  <si>
-    <t>137618085</t>
-  </si>
-  <si>
-    <t>4747186</t>
-  </si>
-  <si>
-    <t>apoptosis</t>
-  </si>
-  <si>
-    <t>155734120</t>
-  </si>
-  <si>
-    <t>172758907</t>
-  </si>
-  <si>
-    <t>4040981</t>
-  </si>
-  <si>
-    <t>pharmacotherapy</t>
-  </si>
-  <si>
-    <t>188619263</t>
-  </si>
-  <si>
-    <t>188618719</t>
-  </si>
-  <si>
-    <t>158100772</t>
-  </si>
-  <si>
-    <t>117479629</t>
-  </si>
-  <si>
-    <t>124455038</t>
-  </si>
-  <si>
-    <t>118781421</t>
-  </si>
-  <si>
-    <t>4028126</t>
-  </si>
-  <si>
-    <t>muscle</t>
-  </si>
-  <si>
-    <t>155823651</t>
-  </si>
-  <si>
-    <t>143858124</t>
-  </si>
-  <si>
-    <t>3815757</t>
-  </si>
-  <si>
-    <t>treatment protocols</t>
-  </si>
-  <si>
-    <t>183987155</t>
-  </si>
-  <si>
-    <t>122693583</t>
-  </si>
-  <si>
-    <t>198208847</t>
-  </si>
-  <si>
-    <t>3784305</t>
-  </si>
-  <si>
-    <t>functional disorder</t>
-  </si>
-  <si>
-    <t>Concepts &amp; Ideas</t>
-  </si>
-  <si>
-    <t>177726142</t>
-  </si>
-  <si>
-    <t>179753303</t>
-  </si>
-  <si>
-    <t>169877369</t>
+    <t>132046376</t>
+  </si>
+  <si>
+    <t>4035048</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>108707293</t>
+  </si>
+  <si>
+    <t>85155919</t>
+  </si>
+  <si>
+    <t>85155800</t>
+  </si>
+  <si>
+    <t>3805896</t>
+  </si>
+  <si>
+    <t>physical findings</t>
+  </si>
+  <si>
+    <t>130709265</t>
+  </si>
+  <si>
+    <t>125269645</t>
+  </si>
+  <si>
+    <t>83735529</t>
+  </si>
+  <si>
+    <t>3743476</t>
+  </si>
+  <si>
+    <t>onset of illness</t>
+  </si>
+  <si>
+    <t>74471654</t>
+  </si>
+  <si>
+    <t>75223735</t>
   </si>
   <si>
     <t>3131611</t>
@@ -1097,37 +1331,46 @@
     <t>observation parameter</t>
   </si>
   <si>
-    <t>152834685</t>
-  </si>
-  <si>
-    <t>157691256</t>
-  </si>
-  <si>
-    <t>120517403</t>
-  </si>
-  <si>
-    <t>139751623</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>132913394</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>175198760</t>
-  </si>
-  <si>
-    <t>126681286</t>
-  </si>
-  <si>
-    <t>117474532</t>
+    <t>86429107</t>
+  </si>
+  <si>
+    <t>54166028</t>
+  </si>
+  <si>
+    <t>73399488</t>
+  </si>
+  <si>
+    <t>91463712</t>
+  </si>
+  <si>
+    <t>66520228</t>
+  </si>
+  <si>
+    <t>2978160</t>
+  </si>
+  <si>
+    <t>assay</t>
+  </si>
+  <si>
+    <t>100717616</t>
+  </si>
+  <si>
+    <t>52161601</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>2875245</t>
+  </si>
+  <si>
+    <t>stimulation procedure</t>
+  </si>
+  <si>
+    <t>121476450</t>
+  </si>
+  <si>
+    <t>70198030</t>
   </si>
   <si>
     <t>2506281</t>
@@ -1136,226 +1379,25 @@
     <t>adverse effects</t>
   </si>
   <si>
-    <t>147593653</t>
-  </si>
-  <si>
-    <t>119958311</t>
-  </si>
-  <si>
-    <t>124264808</t>
-  </si>
-  <si>
-    <t>131800904</t>
-  </si>
-  <si>
-    <t>171355558</t>
-  </si>
-  <si>
-    <t>191774102</t>
-  </si>
-  <si>
-    <t>156888593</t>
-  </si>
-  <si>
-    <t>2406105</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>199678246</t>
-  </si>
-  <si>
-    <t>174116513</t>
-  </si>
-  <si>
-    <t>222848</t>
-  </si>
-  <si>
-    <t>analgesics</t>
-  </si>
-  <si>
-    <t>185455493</t>
-  </si>
-  <si>
-    <t>175198841</t>
-  </si>
-  <si>
-    <t>124929118</t>
-  </si>
-  <si>
-    <t>1074935</t>
-  </si>
-  <si>
-    <t>traumatic injury</t>
-  </si>
-  <si>
-    <t>195180568</t>
-  </si>
-  <si>
-    <t>131073042</t>
-  </si>
-  <si>
-    <t>94761</t>
-  </si>
-  <si>
-    <t>administration, oral</t>
-  </si>
-  <si>
-    <t>158144791</t>
-  </si>
-  <si>
-    <t>122928786</t>
-  </si>
-  <si>
-    <t>5792464</t>
-  </si>
-  <si>
-    <t>elderly (population group)</t>
-  </si>
-  <si>
-    <t>155778382</t>
-  </si>
-  <si>
-    <t>158898744</t>
-  </si>
-  <si>
-    <t>5648475</t>
-  </si>
-  <si>
-    <t>vasodilation</t>
-  </si>
-  <si>
-    <t>153237370</t>
-  </si>
-  <si>
-    <t>132691169</t>
-  </si>
-  <si>
-    <t>122887749</t>
-  </si>
-  <si>
-    <t>5647992</t>
-  </si>
-  <si>
-    <t>cavia</t>
-  </si>
-  <si>
-    <t>167847037</t>
-  </si>
-  <si>
-    <t>140363833</t>
-  </si>
-  <si>
-    <t>140458635</t>
-  </si>
-  <si>
-    <t>544027</t>
-  </si>
-  <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>161551072</t>
-  </si>
-  <si>
-    <t>147742329</t>
-  </si>
-  <si>
-    <t>4041077</t>
-  </si>
-  <si>
-    <t>enalapril</t>
-  </si>
-  <si>
-    <t>163921898</t>
-  </si>
-  <si>
-    <t>150371396</t>
-  </si>
-  <si>
-    <t>4035048</t>
-  </si>
-  <si>
-    <t>heart</t>
-  </si>
-  <si>
-    <t>174886146</t>
-  </si>
-  <si>
-    <t>149653416</t>
-  </si>
-  <si>
-    <t>149653552</t>
-  </si>
-  <si>
-    <t>3805896</t>
-  </si>
-  <si>
-    <t>physical findings</t>
-  </si>
-  <si>
-    <t>196912535</t>
-  </si>
-  <si>
-    <t>150113049</t>
-  </si>
-  <si>
-    <t>191480810</t>
-  </si>
-  <si>
-    <t>3763552</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>163408705</t>
-  </si>
-  <si>
-    <t>167454293</t>
-  </si>
-  <si>
-    <t>136231854</t>
-  </si>
-  <si>
-    <t>3743476</t>
-  </si>
-  <si>
-    <t>onset of illness</t>
-  </si>
-  <si>
-    <t>140908855</t>
-  </si>
-  <si>
-    <t>139183893</t>
-  </si>
-  <si>
-    <t>2978160</t>
-  </si>
-  <si>
-    <t>assay</t>
-  </si>
-  <si>
-    <t>166832389</t>
-  </si>
-  <si>
-    <t>118400819</t>
-  </si>
-  <si>
-    <t>diagnoses</t>
-  </si>
-  <si>
-    <t>2875245</t>
-  </si>
-  <si>
-    <t>stimulation procedure</t>
-  </si>
-  <si>
-    <t>187686394</t>
-  </si>
-  <si>
-    <t>136694420</t>
+    <t>53628857</t>
+  </si>
+  <si>
+    <t>81181210</t>
+  </si>
+  <si>
+    <t>65400904</t>
+  </si>
+  <si>
+    <t>90696644</t>
+  </si>
+  <si>
+    <t>57869738</t>
+  </si>
+  <si>
+    <t>125562143</t>
+  </si>
+  <si>
+    <t>105141404</t>
   </si>
   <si>
     <t>3811276</t>
@@ -1364,28 +1406,10 @@
     <t>favor</t>
   </si>
   <si>
-    <t>190013382</t>
-  </si>
-  <si>
-    <t>182690294</t>
-  </si>
-  <si>
-    <t>2986464</t>
-  </si>
-  <si>
-    <t>injection procedure</t>
-  </si>
-  <si>
-    <t>171354739</t>
-  </si>
-  <si>
-    <t>195069238</t>
-  </si>
-  <si>
-    <t>158100493</t>
-  </si>
-  <si>
-    <t>131259476</t>
+    <t>123876357</t>
+  </si>
+  <si>
+    <t>116495466</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1614,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1121.0</v>
+        <v>99.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1643,46 +1667,10 @@
       <c r="R2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>215.0</v>
+        <v>37.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1694,13 +1682,13 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -1712,33 +1700,39 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>51.0</v>
+        <v>29.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1750,10 +1744,10 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
         <v>55</v>
@@ -1768,33 +1762,27 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>37.0</v>
+        <v>29.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1806,57 +1794,51 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" t="s">
         <v>92</v>
       </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" t="s">
-        <v>96</v>
-      </c>
-      <c r="N5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>99</v>
-      </c>
       <c r="R5" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1868,13 +1850,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -1886,27 +1868,21 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N6" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" t="s">
-        <v>107</v>
-      </c>
-      <c r="P6" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1918,13 +1894,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -1936,33 +1912,21 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R7" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1974,13 +1938,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -1992,21 +1956,21 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N8" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -2018,10 +1982,10 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -2036,33 +2000,33 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="s">
         <v>112</v>
       </c>
-      <c r="M9" t="s">
-        <v>125</v>
-      </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="Q9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="R9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -2074,10 +2038,10 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
         <v>58</v>
@@ -2092,21 +2056,21 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="N10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2118,13 +2082,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -2136,39 +2100,27 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>139</v>
-      </c>
-      <c r="R11" t="s">
-        <v>66</v>
-      </c>
-      <c r="S11" t="s">
-        <v>140</v>
-      </c>
-      <c r="T11" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -2180,39 +2132,123 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>131</v>
+      </c>
+      <c r="R12" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s">
+        <v>132</v>
+      </c>
+      <c r="T12" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" t="s">
+        <v>133</v>
+      </c>
+      <c r="V12" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF12" t="s">
         <v>141</v>
       </c>
-      <c r="F12" t="s">
+      <c r="AG12" t="s">
         <v>142</v>
       </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="AH12" t="s">
         <v>143</v>
       </c>
-      <c r="L12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="AI12" t="s">
         <v>144</v>
       </c>
-      <c r="N12" t="s">
-        <v>133</v>
+      <c r="AJ12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2224,13 +2260,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -2242,21 +2278,39 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
+        <v>153</v>
+      </c>
+      <c r="P13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>155</v>
+      </c>
+      <c r="R13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" t="s">
+        <v>156</v>
+      </c>
+      <c r="T13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2268,13 +2322,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -2286,27 +2340,21 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
-      </c>
-      <c r="O14" t="s">
-        <v>155</v>
-      </c>
-      <c r="P14" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -2318,13 +2366,13 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
@@ -2336,21 +2384,27 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="M15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="O15" t="s">
+        <v>167</v>
+      </c>
+      <c r="P15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2362,13 +2416,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -2380,39 +2434,63 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="M16" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" t="s">
         <v>60</v>
       </c>
-      <c r="O16" t="s">
-        <v>165</v>
-      </c>
-      <c r="P16" t="s">
-        <v>166</v>
-      </c>
       <c r="Q16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="R16" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="S16" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="U16" t="s">
+        <v>175</v>
+      </c>
+      <c r="V16" t="s">
+        <v>119</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2424,13 +2502,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -2442,27 +2520,27 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="O17" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -2474,13 +2552,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -2492,27 +2570,27 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="M18" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="N18" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="O18" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="P18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -2524,13 +2602,13 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -2542,87 +2620,27 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="M19" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="O19" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>186</v>
-      </c>
-      <c r="R19" t="s">
-        <v>112</v>
-      </c>
-      <c r="S19" t="s">
-        <v>187</v>
-      </c>
-      <c r="T19" t="s">
-        <v>112</v>
-      </c>
-      <c r="U19" t="s">
-        <v>188</v>
-      </c>
-      <c r="V19" t="s">
-        <v>68</v>
-      </c>
-      <c r="W19" t="s">
-        <v>189</v>
-      </c>
-      <c r="X19" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>197</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -2634,10 +2652,10 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
         <v>55</v>
@@ -2652,34 +2670,16 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N20" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" t="s">
-        <v>202</v>
-      </c>
-      <c r="P20" t="s">
         <v>66</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>203</v>
-      </c>
-      <c r="R20" t="s">
-        <v>75</v>
-      </c>
-      <c r="S20" t="s">
-        <v>204</v>
-      </c>
-      <c r="T20" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -2696,40 +2696,52 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M21" t="s">
+        <v>202</v>
+      </c>
+      <c r="N21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" t="s">
+        <v>203</v>
+      </c>
+      <c r="P21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R21" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" t="s">
         <v>205</v>
       </c>
-      <c r="F21" t="s">
-        <v>206</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" t="s">
-        <v>207</v>
-      </c>
-      <c r="L21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" t="s">
-        <v>208</v>
-      </c>
-      <c r="N21" t="s">
-        <v>73</v>
-      </c>
-      <c r="O21" t="s">
-        <v>209</v>
-      </c>
-      <c r="P21" t="s">
-        <v>75</v>
+      <c r="T21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -2746,13 +2758,13 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -2764,34 +2776,22 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s">
         <v>81</v>
       </c>
       <c r="O22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P22" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>215</v>
-      </c>
-      <c r="R22" t="s">
-        <v>77</v>
-      </c>
-      <c r="S22" t="s">
-        <v>216</v>
-      </c>
-      <c r="T22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -2808,52 +2808,82 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s">
+        <v>119</v>
+      </c>
+      <c r="M23" t="s">
+        <v>214</v>
+      </c>
+      <c r="N23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" t="s">
+        <v>215</v>
+      </c>
+      <c r="P23" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>216</v>
+      </c>
+      <c r="R23" t="s">
+        <v>90</v>
+      </c>
+      <c r="S23" t="s">
         <v>217</v>
       </c>
-      <c r="F23" t="s">
+      <c r="T23" t="s">
+        <v>64</v>
+      </c>
+      <c r="U23" t="s">
         <v>218</v>
       </c>
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="V23" t="s">
+        <v>77</v>
+      </c>
+      <c r="W23" t="s">
         <v>219</v>
       </c>
-      <c r="L23" t="s">
-        <v>121</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="X23" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y23" t="s">
         <v>220</v>
       </c>
-      <c r="N23" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="Z23" t="s">
         <v>221</v>
       </c>
-      <c r="P23" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="AA23" t="s">
         <v>222</v>
       </c>
-      <c r="R23" t="s">
-        <v>154</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="AB23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC23" t="s">
         <v>223</v>
       </c>
-      <c r="T23" t="s">
-        <v>133</v>
+      <c r="AD23" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -2876,7 +2906,7 @@
         <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -2891,102 +2921,24 @@
         <v>226</v>
       </c>
       <c r="L24" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M24" t="s">
         <v>227</v>
       </c>
       <c r="N24" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="O24" t="s">
         <v>228</v>
       </c>
       <c r="P24" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>229</v>
-      </c>
-      <c r="R24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S24" t="s">
-        <v>230</v>
-      </c>
-      <c r="T24" t="s">
-        <v>112</v>
-      </c>
-      <c r="U24" t="s">
-        <v>231</v>
-      </c>
-      <c r="V24" t="s">
-        <v>183</v>
-      </c>
-      <c r="W24" t="s">
-        <v>232</v>
-      </c>
-      <c r="X24" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>237</v>
-      </c>
-      <c r="AF24" t="s">
         <v>66</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>238</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>239</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>241</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>243</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -2998,10 +2950,10 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
         <v>55</v>
@@ -3016,21 +2968,21 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -3042,10 +2994,10 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
@@ -3060,64 +3012,16 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="M26" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="N26" t="s">
-        <v>112</v>
-      </c>
-      <c r="O26" t="s">
-        <v>253</v>
-      </c>
-      <c r="P26" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>254</v>
-      </c>
-      <c r="R26" t="s">
-        <v>101</v>
-      </c>
-      <c r="S26" t="s">
-        <v>255</v>
-      </c>
-      <c r="T26" t="s">
-        <v>68</v>
-      </c>
-      <c r="U26" t="s">
-        <v>256</v>
-      </c>
-      <c r="V26" t="s">
-        <v>81</v>
-      </c>
-      <c r="W26" t="s">
-        <v>257</v>
-      </c>
-      <c r="X26" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -3134,10 +3038,10 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
         <v>55</v>
@@ -3152,16 +3056,64 @@
         <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M27" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s">
-        <v>73</v>
+        <v>241</v>
+      </c>
+      <c r="O27" t="s">
+        <v>242</v>
+      </c>
+      <c r="P27" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>243</v>
+      </c>
+      <c r="R27" t="s">
+        <v>88</v>
+      </c>
+      <c r="S27" t="s">
+        <v>244</v>
+      </c>
+      <c r="T27" t="s">
+        <v>70</v>
+      </c>
+      <c r="U27" t="s">
+        <v>245</v>
+      </c>
+      <c r="V27" t="s">
+        <v>70</v>
+      </c>
+      <c r="W27" t="s">
+        <v>246</v>
+      </c>
+      <c r="X27" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="28">
@@ -3178,13 +3130,13 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -3196,21 +3148,33 @@
         <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="M28" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s">
-        <v>121</v>
+        <v>64</v>
+      </c>
+      <c r="O28" t="s">
+        <v>257</v>
+      </c>
+      <c r="P28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>259</v>
+      </c>
+      <c r="R28" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -3222,13 +3186,13 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -3240,33 +3204,27 @@
         <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="M29" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="N29" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="O29" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P29" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>276</v>
-      </c>
-      <c r="R29" t="s">
-        <v>277</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3278,13 +3236,13 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F30" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -3296,22 +3254,52 @@
         <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" t="s">
+        <v>271</v>
+      </c>
+      <c r="N30" t="s">
         <v>60</v>
       </c>
-      <c r="M30" t="s">
-        <v>281</v>
-      </c>
-      <c r="N30" t="s">
-        <v>62</v>
-      </c>
       <c r="O30" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="P30" t="s">
-        <v>73</v>
+        <v>124</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>273</v>
+      </c>
+      <c r="R30" t="s">
+        <v>98</v>
+      </c>
+      <c r="S30" t="s">
+        <v>274</v>
+      </c>
+      <c r="T30" t="s">
+        <v>98</v>
+      </c>
+      <c r="U30" t="s">
+        <v>275</v>
+      </c>
+      <c r="V30" t="s">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s">
+        <v>276</v>
+      </c>
+      <c r="X30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -3328,40 +3316,40 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>280</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" t="s">
+        <v>282</v>
+      </c>
+      <c r="N31" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" t="s">
         <v>283</v>
       </c>
-      <c r="F31" t="s">
-        <v>284</v>
-      </c>
-      <c r="G31" t="s">
-        <v>285</v>
-      </c>
-      <c r="H31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K31" t="s">
-        <v>286</v>
-      </c>
-      <c r="L31" t="s">
-        <v>240</v>
-      </c>
-      <c r="M31" t="s">
-        <v>287</v>
-      </c>
-      <c r="N31" t="s">
-        <v>66</v>
-      </c>
-      <c r="O31" t="s">
-        <v>288</v>
-      </c>
       <c r="P31" t="s">
-        <v>289</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -3378,13 +3366,13 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -3396,58 +3384,16 @@
         <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="M32" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N32" t="s">
-        <v>97</v>
-      </c>
-      <c r="O32" t="s">
-        <v>294</v>
-      </c>
-      <c r="P32" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>295</v>
-      </c>
-      <c r="R32" t="s">
-        <v>66</v>
-      </c>
-      <c r="S32" t="s">
-        <v>296</v>
-      </c>
-      <c r="T32" t="s">
-        <v>62</v>
-      </c>
-      <c r="U32" t="s">
-        <v>297</v>
-      </c>
-      <c r="V32" t="s">
-        <v>101</v>
-      </c>
-      <c r="W32" t="s">
-        <v>298</v>
-      </c>
-      <c r="X32" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -3464,13 +3410,13 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -3482,16 +3428,28 @@
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="M33" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="O33" t="s">
+        <v>292</v>
+      </c>
+      <c r="P33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>293</v>
+      </c>
+      <c r="R33" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -3508,13 +3466,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -3526,40 +3484,28 @@
         <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s">
-        <v>308</v>
+        <v>60</v>
       </c>
       <c r="M34" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="N34" t="s">
+        <v>154</v>
+      </c>
+      <c r="O34" t="s">
+        <v>298</v>
+      </c>
+      <c r="P34" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>299</v>
+      </c>
+      <c r="R34" t="s">
         <v>66</v>
-      </c>
-      <c r="O34" t="s">
-        <v>310</v>
-      </c>
-      <c r="P34" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>311</v>
-      </c>
-      <c r="R34" t="s">
-        <v>62</v>
-      </c>
-      <c r="S34" t="s">
-        <v>312</v>
-      </c>
-      <c r="T34" t="s">
-        <v>313</v>
-      </c>
-      <c r="U34" t="s">
-        <v>314</v>
-      </c>
-      <c r="V34" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -3576,13 +3522,13 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F35" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -3594,16 +3540,40 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" t="s">
+        <v>303</v>
+      </c>
+      <c r="N35" t="s">
+        <v>77</v>
+      </c>
+      <c r="O35" t="s">
+        <v>304</v>
+      </c>
+      <c r="P35" t="s">
         <v>60</v>
       </c>
-      <c r="M35" t="s">
-        <v>318</v>
-      </c>
-      <c r="N35" t="s">
-        <v>73</v>
+      <c r="Q35" t="s">
+        <v>305</v>
+      </c>
+      <c r="R35" t="s">
+        <v>124</v>
+      </c>
+      <c r="S35" t="s">
+        <v>306</v>
+      </c>
+      <c r="T35" t="s">
+        <v>98</v>
+      </c>
+      <c r="U35" t="s">
+        <v>307</v>
+      </c>
+      <c r="V35" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -3620,13 +3590,13 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F36" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G36" t="s">
-        <v>321</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -3638,16 +3608,16 @@
         <v>58</v>
       </c>
       <c r="K36" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="M36" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
@@ -3664,13 +3634,13 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
@@ -3682,21 +3652,21 @@
         <v>58</v>
       </c>
       <c r="K37" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="M37" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="N37" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -3708,13 +3678,13 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F38" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s">
         <v>56</v>
@@ -3726,21 +3696,21 @@
         <v>58</v>
       </c>
       <c r="K38" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="M38" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="N38" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -3752,13 +3722,13 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="G39" t="s">
-        <v>285</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -3770,16 +3740,22 @@
         <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="L39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M39" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="N39" t="s">
-        <v>133</v>
+        <v>77</v>
+      </c>
+      <c r="O39" t="s">
+        <v>325</v>
+      </c>
+      <c r="P39" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -3796,13 +3772,13 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F40" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G40" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -3814,40 +3790,16 @@
         <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="M40" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="N40" t="s">
-        <v>101</v>
-      </c>
-      <c r="O40" t="s">
-        <v>340</v>
-      </c>
-      <c r="P40" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>341</v>
-      </c>
-      <c r="R40" t="s">
-        <v>121</v>
-      </c>
-      <c r="S40" t="s">
-        <v>342</v>
-      </c>
-      <c r="T40" t="s">
-        <v>66</v>
-      </c>
-      <c r="U40" t="s">
-        <v>343</v>
-      </c>
-      <c r="V40" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -3864,13 +3816,13 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="F41" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G41" t="s">
-        <v>118</v>
+        <v>263</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -3882,16 +3834,16 @@
         <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M41" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="N41" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
@@ -3908,13 +3860,13 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="G42" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -3926,22 +3878,34 @@
         <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M42" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="N42" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="O42" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="P42" t="s">
-        <v>121</v>
+        <v>143</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>339</v>
+      </c>
+      <c r="R42" t="s">
+        <v>124</v>
+      </c>
+      <c r="S42" t="s">
+        <v>340</v>
+      </c>
+      <c r="T42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43">
@@ -3958,13 +3922,13 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F43" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G43" t="s">
-        <v>355</v>
+        <v>95</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -3976,22 +3940,16 @@
         <v>58</v>
       </c>
       <c r="K43" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="M43" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="N43" t="s">
         <v>66</v>
-      </c>
-      <c r="O43" t="s">
-        <v>358</v>
-      </c>
-      <c r="P43" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="44">
@@ -4008,13 +3966,13 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F44" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -4026,34 +3984,22 @@
         <v>58</v>
       </c>
       <c r="K44" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M44" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="N44" t="s">
         <v>66</v>
       </c>
       <c r="O44" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="P44" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>364</v>
-      </c>
-      <c r="R44" t="s">
-        <v>365</v>
-      </c>
-      <c r="S44" t="s">
-        <v>366</v>
-      </c>
-      <c r="T44" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4016,10 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="F45" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="G45" t="s">
         <v>55</v>
@@ -4088,22 +4034,34 @@
         <v>58</v>
       </c>
       <c r="K45" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M45" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="N45" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="O45" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="P45" t="s">
-        <v>73</v>
+        <v>157</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>355</v>
+      </c>
+      <c r="R45" t="s">
+        <v>247</v>
+      </c>
+      <c r="S45" t="s">
+        <v>356</v>
+      </c>
+      <c r="T45" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46">
@@ -4120,13 +4078,13 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="F46" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
@@ -4138,45 +4096,15 @@
         <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="M46" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="N46" t="s">
-        <v>62</v>
-      </c>
-      <c r="O46" t="s">
-        <v>376</v>
-      </c>
-      <c r="P46" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>377</v>
-      </c>
-      <c r="R46" t="s">
-        <v>121</v>
-      </c>
-      <c r="S46" t="s">
-        <v>378</v>
-      </c>
-      <c r="T46" t="s">
-        <v>66</v>
-      </c>
-      <c r="U46" t="s">
-        <v>379</v>
-      </c>
-      <c r="V46" t="s">
-        <v>154</v>
-      </c>
-      <c r="W46" t="s">
-        <v>380</v>
-      </c>
-      <c r="X46" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4194,13 +4122,13 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="F47" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s">
         <v>56</v>
@@ -4212,16 +4140,22 @@
         <v>58</v>
       </c>
       <c r="K47" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="N47" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="O47" t="s">
+        <v>365</v>
+      </c>
+      <c r="P47" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="48">
@@ -4238,13 +4172,13 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="F48" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H48" t="s">
         <v>56</v>
@@ -4256,27 +4190,21 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="M48" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="N48" t="s">
-        <v>112</v>
-      </c>
-      <c r="O48" t="s">
-        <v>389</v>
-      </c>
-      <c r="P48" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -4288,13 +4216,13 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="F49" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s">
         <v>56</v>
@@ -4306,16 +4234,16 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="L49" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="M49" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="N49" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
@@ -4332,13 +4260,13 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="F50" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
@@ -4350,13 +4278,13 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M50" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="N50" t="s">
         <v>66</v>
@@ -4376,13 +4304,13 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="F51" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="G51" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="H51" t="s">
         <v>56</v>
@@ -4394,16 +4322,22 @@
         <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M51" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="N51" t="s">
-        <v>73</v>
+        <v>266</v>
+      </c>
+      <c r="O51" t="s">
+        <v>382</v>
+      </c>
+      <c r="P51" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="52">
@@ -4420,13 +4354,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="F52" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G52" t="s">
-        <v>285</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s">
         <v>56</v>
@@ -4438,22 +4372,82 @@
         <v>58</v>
       </c>
       <c r="K52" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s">
-        <v>289</v>
+        <v>90</v>
       </c>
       <c r="M52" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="N52" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="O52" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="P52" t="s">
-        <v>365</v>
+        <v>88</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>389</v>
+      </c>
+      <c r="R52" t="s">
+        <v>135</v>
+      </c>
+      <c r="S52" t="s">
+        <v>390</v>
+      </c>
+      <c r="T52" t="s">
+        <v>90</v>
+      </c>
+      <c r="U52" t="s">
+        <v>391</v>
+      </c>
+      <c r="V52" t="s">
+        <v>392</v>
+      </c>
+      <c r="W52" t="s">
+        <v>393</v>
+      </c>
+      <c r="X52" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="53">
@@ -4470,10 +4464,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F53" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -4488,22 +4482,22 @@
         <v>58</v>
       </c>
       <c r="K53" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L53" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="M53" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="N53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O53" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="P53" t="s">
-        <v>77</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54">
@@ -4520,13 +4514,13 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F54" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G54" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="H54" t="s">
         <v>56</v>
@@ -4538,16 +4532,16 @@
         <v>58</v>
       </c>
       <c r="K54" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="M54" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="N54" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55">
@@ -4564,10 +4558,10 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F55" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G55" t="s">
         <v>52</v>
@@ -4582,16 +4576,16 @@
         <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L55" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="M55" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="N55" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56">
@@ -4608,40 +4602,58 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
+        <v>413</v>
+      </c>
+      <c r="F56" t="s">
+        <v>414</v>
+      </c>
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56" t="s">
+        <v>415</v>
+      </c>
+      <c r="L56" t="s">
+        <v>70</v>
+      </c>
+      <c r="M56" t="s">
+        <v>416</v>
+      </c>
+      <c r="N56" t="s">
+        <v>60</v>
+      </c>
+      <c r="O56" t="s">
+        <v>417</v>
+      </c>
+      <c r="P56" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>419</v>
+      </c>
+      <c r="R56" t="s">
+        <v>72</v>
+      </c>
+      <c r="S56" t="s">
         <v>420</v>
       </c>
-      <c r="F56" t="s">
+      <c r="T56" t="s">
         <v>421</v>
       </c>
-      <c r="G56" t="s">
-        <v>118</v>
-      </c>
-      <c r="H56" t="s">
-        <v>56</v>
-      </c>
-      <c r="I56" t="s">
-        <v>57</v>
-      </c>
-      <c r="J56" t="s">
-        <v>58</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="U56" t="s">
         <v>422</v>
       </c>
-      <c r="L56" t="s">
-        <v>106</v>
-      </c>
-      <c r="M56" t="s">
-        <v>423</v>
-      </c>
-      <c r="N56" t="s">
-        <v>289</v>
-      </c>
-      <c r="O56" t="s">
-        <v>424</v>
-      </c>
-      <c r="P56" t="s">
-        <v>106</v>
+      <c r="V56" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="57">
@@ -4658,40 +4670,40 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
+        <v>423</v>
+      </c>
+      <c r="F57" t="s">
+        <v>424</v>
+      </c>
+      <c r="G57" t="s">
+        <v>95</v>
+      </c>
+      <c r="H57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K57" t="s">
         <v>425</v>
       </c>
-      <c r="F57" t="s">
+      <c r="L57" t="s">
+        <v>81</v>
+      </c>
+      <c r="M57" t="s">
         <v>426</v>
       </c>
-      <c r="G57" t="s">
-        <v>58</v>
-      </c>
-      <c r="H57" t="s">
-        <v>56</v>
-      </c>
-      <c r="I57" t="s">
-        <v>57</v>
-      </c>
-      <c r="J57" t="s">
-        <v>58</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="N57" t="s">
+        <v>81</v>
+      </c>
+      <c r="O57" t="s">
         <v>427</v>
       </c>
-      <c r="L57" t="s">
-        <v>62</v>
-      </c>
-      <c r="M57" t="s">
-        <v>428</v>
-      </c>
-      <c r="N57" t="s">
-        <v>289</v>
-      </c>
-      <c r="O57" t="s">
-        <v>429</v>
-      </c>
       <c r="P57" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58">
@@ -4708,40 +4720,40 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F58" t="s">
+        <v>429</v>
+      </c>
+      <c r="G58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" t="s">
         <v>430</v>
       </c>
-      <c r="F58" t="s">
+      <c r="L58" t="s">
+        <v>60</v>
+      </c>
+      <c r="M58" t="s">
         <v>431</v>
       </c>
-      <c r="G58" t="s">
-        <v>55</v>
-      </c>
-      <c r="H58" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" t="s">
-        <v>57</v>
-      </c>
-      <c r="J58" t="s">
-        <v>58</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="N58" t="s">
+        <v>98</v>
+      </c>
+      <c r="O58" t="s">
         <v>432</v>
       </c>
-      <c r="L58" t="s">
-        <v>62</v>
-      </c>
-      <c r="M58" t="s">
-        <v>433</v>
-      </c>
-      <c r="N58" t="s">
-        <v>66</v>
-      </c>
-      <c r="O58" t="s">
-        <v>434</v>
-      </c>
       <c r="P58" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59">
@@ -4758,34 +4770,34 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
+        <v>433</v>
+      </c>
+      <c r="F59" t="s">
+        <v>434</v>
+      </c>
+      <c r="G59" t="s">
+        <v>280</v>
+      </c>
+      <c r="H59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" t="s">
+        <v>58</v>
+      </c>
+      <c r="K59" t="s">
         <v>435</v>
       </c>
-      <c r="F59" t="s">
+      <c r="L59" t="s">
+        <v>62</v>
+      </c>
+      <c r="M59" t="s">
         <v>436</v>
       </c>
-      <c r="G59" t="s">
-        <v>355</v>
-      </c>
-      <c r="H59" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59" t="s">
-        <v>57</v>
-      </c>
-      <c r="J59" t="s">
-        <v>58</v>
-      </c>
-      <c r="K59" t="s">
-        <v>437</v>
-      </c>
-      <c r="L59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M59" t="s">
-        <v>438</v>
-      </c>
       <c r="N59" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60">
@@ -4802,34 +4814,52 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
+        <v>437</v>
+      </c>
+      <c r="F60" t="s">
+        <v>438</v>
+      </c>
+      <c r="G60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" t="s">
         <v>439</v>
       </c>
-      <c r="F60" t="s">
+      <c r="L60" t="s">
+        <v>62</v>
+      </c>
+      <c r="M60" t="s">
         <v>440</v>
       </c>
-      <c r="G60" t="s">
-        <v>110</v>
-      </c>
-      <c r="H60" t="s">
-        <v>56</v>
-      </c>
-      <c r="I60" t="s">
-        <v>57</v>
-      </c>
-      <c r="J60" t="s">
-        <v>58</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="N60" t="s">
+        <v>60</v>
+      </c>
+      <c r="O60" t="s">
         <v>441</v>
       </c>
-      <c r="L60" t="s">
-        <v>68</v>
-      </c>
-      <c r="M60" t="s">
+      <c r="P60" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q60" t="s">
         <v>442</v>
       </c>
-      <c r="N60" t="s">
+      <c r="R60" t="s">
+        <v>70</v>
+      </c>
+      <c r="S60" t="s">
         <v>443</v>
+      </c>
+      <c r="T60" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="61">
@@ -4852,7 +4882,7 @@
         <v>445</v>
       </c>
       <c r="G61" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s">
         <v>56</v>
@@ -4867,18 +4897,18 @@
         <v>446</v>
       </c>
       <c r="L61" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="M61" t="s">
         <v>447</v>
       </c>
       <c r="N61" t="s">
-        <v>62</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
@@ -4890,13 +4920,13 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F62" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G62" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s">
         <v>56</v>
@@ -4908,72 +4938,134 @@
         <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="M62" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N62" t="s">
-        <v>289</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" t="s">
+        <v>453</v>
+      </c>
+      <c r="F63" t="s">
+        <v>454</v>
+      </c>
+      <c r="G63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" t="s">
+        <v>57</v>
+      </c>
+      <c r="J63" t="s">
+        <v>58</v>
+      </c>
+      <c r="K63" t="s">
+        <v>455</v>
+      </c>
+      <c r="L63" t="s">
+        <v>60</v>
+      </c>
+      <c r="M63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N63" t="s">
+        <v>98</v>
+      </c>
+      <c r="O63" t="s">
+        <v>457</v>
+      </c>
+      <c r="P63" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>458</v>
+      </c>
+      <c r="R63" t="s">
+        <v>70</v>
+      </c>
+      <c r="S63" t="s">
+        <v>459</v>
+      </c>
+      <c r="T63" t="s">
+        <v>119</v>
+      </c>
+      <c r="U63" t="s">
+        <v>460</v>
+      </c>
+      <c r="V63" t="s">
+        <v>124</v>
+      </c>
+      <c r="W63" t="s">
+        <v>461</v>
+      </c>
+      <c r="X63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
         <v>1.0</v>
       </c>
-      <c r="B63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" t="s">
-        <v>452</v>
-      </c>
-      <c r="F63" t="s">
-        <v>453</v>
-      </c>
-      <c r="G63" t="s">
-        <v>110</v>
-      </c>
-      <c r="H63" t="s">
-        <v>56</v>
-      </c>
-      <c r="I63" t="s">
-        <v>57</v>
-      </c>
-      <c r="J63" t="s">
-        <v>58</v>
-      </c>
-      <c r="K63" t="s">
-        <v>454</v>
-      </c>
-      <c r="L63" t="s">
-        <v>101</v>
-      </c>
-      <c r="M63" t="s">
-        <v>455</v>
-      </c>
-      <c r="N63" t="s">
-        <v>68</v>
-      </c>
-      <c r="O63" t="s">
-        <v>456</v>
-      </c>
-      <c r="P63" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>457</v>
-      </c>
-      <c r="R63" t="s">
-        <v>62</v>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" t="s">
+        <v>462</v>
+      </c>
+      <c r="F64" t="s">
+        <v>463</v>
+      </c>
+      <c r="G64" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" t="s">
+        <v>56</v>
+      </c>
+      <c r="I64" t="s">
+        <v>57</v>
+      </c>
+      <c r="J64" t="s">
+        <v>58</v>
+      </c>
+      <c r="K64" t="s">
+        <v>464</v>
+      </c>
+      <c r="L64" t="s">
+        <v>119</v>
+      </c>
+      <c r="M64" t="s">
+        <v>465</v>
+      </c>
+      <c r="N64" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
